--- a/documents/userstories.xlsx
+++ b/documents/userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Donkerdom\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F522EC5-FE33-47CF-BD3C-1CE2E5ADA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B2CF5-143F-4936-806D-6321E1315339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Algyn Koster</t>
   </si>
   <si>
-    <t xml:space="preserve"> Als lid, wil ik mijn eigen profiel kunnen aanpassen. Ook moet de website zich kunnen aanpassen op allerlei apparaten, zodat er op onze website op meerdere apparaten te werken valt.</t>
-  </si>
-  <si>
     <t>Jordy Kerkluyder</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Als beheerder, wil ik dat bestuursleden kunnen filteren op leden, zodat ledeninformatie makkelijker toegankelijk word dan nu het geval is.</t>
   </si>
   <si>
-    <t>Als bestuurslid, wil ik informatie over alle leden in het systeem kunnen inzien, en leden kunnen aanmaken, wijzigen of verwijderen, zodat ik mijn werk als bestuurslid kan uitvoeren.</t>
-  </si>
-  <si>
     <t>Als bestuurslid, wil ik voor het uitvoeren van bestuurstaken ingelogd moet worden, zodat niet iedereen toegang heeft tot onze administratie en gevoelige data.</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>Als mede-eigenaar, zou het goed zijn als leden een opslag kregen voor belangrijke documenten van hun spellen als D&amp;D, zodat informatie makkelijk via het internet opgehaald kunnen worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Als lid, wil ik dat de website toegankelijk wordt op allerlei apparaten, zodat er op onze website op meerdere apparaten te werken valt.</t>
+  </si>
+  <si>
+    <t>Als bestuurslid, wil ik informatie over alle leden in een tabel kunnen zien, en ergens kunnen aanpassen, zodat ik mijn werk als bestuurslid kan uitvoeren.</t>
   </si>
 </sst>
 </file>
@@ -320,22 +320,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +655,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,15 +670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="6" t="s">
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="6" t="s">
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="6" t="s">
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="6" t="s">
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="6" t="s">
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="6" t="s">
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="6" t="s">
@@ -898,7 +898,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4">
@@ -915,14 +915,14 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
@@ -933,7 +933,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
@@ -950,7 +950,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4">
@@ -967,14 +967,14 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="6" t="s">
@@ -984,14 +984,14 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
@@ -1008,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="6" t="s">
@@ -1019,13 +1019,13 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="6" t="s">
@@ -1036,13 +1036,13 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="6" t="s">
@@ -1053,13 +1053,13 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="6" t="s">
@@ -1133,6 +1133,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C17:D17"/>
@@ -1140,11 +1146,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -1154,7 +1155,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
